--- a/dashexample2.xlsx
+++ b/dashexample2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam.livingstone/Dashboarding/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550C9F1C-D44D-9F47-84B8-52477DF9CA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3036E678-14CE-DF4A-968E-895B0906AD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="7000" windowWidth="28040" windowHeight="17120" xr2:uid="{245C75B0-DAF5-D64D-A89E-9343DEFF731B}"/>
+    <workbookView xWindow="1340" yWindow="2520" windowWidth="28040" windowHeight="17120" xr2:uid="{245C75B0-DAF5-D64D-A89E-9343DEFF731B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>23/24</t>
   </si>
@@ -55,13 +55,10 @@
     <t>19/20</t>
   </si>
   <si>
-    <t>League 1</t>
-  </si>
-  <si>
-    <t>League 2</t>
-  </si>
-  <si>
-    <t>Season</t>
+    <t>League One</t>
+  </si>
+  <si>
+    <t>League Two</t>
   </si>
 </sst>
 </file>
@@ -419,88 +416,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BD4B044-AA39-C343-8061-01DDB9BE8BCC}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A2:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B3" s="2">
+        <v>8712</v>
+      </c>
+      <c r="C3" s="2">
+        <v>8766</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1955</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10023</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10611</v>
+      </c>
+      <c r="G3" s="2">
+        <v>9698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
-        <v>8712</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B4" s="2">
         <v>4467</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>8766</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="C4" s="2">
         <v>4671</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1955</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>1457</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>10023</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="E4" s="2">
         <v>4924</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2">
-        <v>10611</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="F4" s="2">
         <v>5712</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>9698</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="G4" s="2">
         <v>6226</v>
       </c>
     </row>
